--- a/app/data/absenteeism_data_36.xlsx
+++ b/app/data/absenteeism_data_36.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5747</v>
+        <v>49749</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eduarda Carvalho</t>
+          <t>João Lucas Melo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,27 +494,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>3912.99</v>
+        <v>5345.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>77525</v>
+        <v>92768</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antônio Araújo</t>
+          <t>Dr. Henrique Aragão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,85 +523,85 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="G3" t="n">
-        <v>2599.5</v>
+        <v>12073.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>54731</v>
+        <v>60321</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lavínia Pires</t>
+          <t>Murilo Duarte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>2723.37</v>
+        <v>2544.56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>85992</v>
+        <v>88991</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Helena Duarte</t>
+          <t>Agatha da Cruz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>10112.04</v>
+        <v>7398.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69346</v>
+        <v>28075</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marcela da Cruz</t>
+          <t>Vitor Campos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,90 +610,90 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45103</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>7109.5</v>
+        <v>9371.200000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>23430</v>
+        <v>66101</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rafael Melo</t>
+          <t>Dra. Laura Barbosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45079</v>
+        <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>11830.47</v>
+        <v>3166.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2521</v>
+        <v>38310</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Breno Ramos</t>
+          <t>Maria Cecília Gomes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>7409.07</v>
+        <v>6190.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8657</v>
+        <v>84639</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Henrique Santos</t>
+          <t>Sr. Davi da Mata</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -703,21 +703,21 @@
         <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>3121.55</v>
+        <v>8938.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>41752</v>
+        <v>63522</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Yuri Mendes</t>
+          <t>Sr. Luigi da Rosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45098</v>
+        <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>9709.120000000001</v>
+        <v>11871.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>75288</v>
+        <v>6520</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Cecília Alves</t>
+          <t>Dr. Otávio Viana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>10199.35</v>
+        <v>9445.690000000001</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_36.xlsx
+++ b/app/data/absenteeism_data_36.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96969</v>
+        <v>13260</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Sophia Dias</t>
+          <t>Vicente Fernandes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45093</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>9386.360000000001</v>
+        <v>7588.47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>59301</v>
+        <v>90122</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dra. Sophie Novaes</t>
+          <t>Joana da Luz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45089</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>2565.14</v>
+        <v>10860.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>54369</v>
+        <v>2221</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isis Rodrigues</t>
+          <t>Dra. Raquel Freitas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45092</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>9547.610000000001</v>
+        <v>7342.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>62990</v>
+        <v>45847</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alana Campos</t>
+          <t>Pedro Dias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,147 +577,147 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>10365.41</v>
+        <v>11250.72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2887</v>
+        <v>30133</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sarah Oliveira</t>
+          <t>Ian Cunha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45092</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>2540.96</v>
+        <v>8784.280000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>59454</v>
+        <v>17996</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Emilly Correia</t>
+          <t>Sr. Juan Fogaça</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>4366.49</v>
+        <v>3410.49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>53068</v>
+        <v>75214</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sra. Sophia Santos</t>
+          <t>Sra. Vitória Cardoso</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45079</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>10491.7</v>
+        <v>11562.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63472</v>
+        <v>40380</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Júlia da Luz</t>
+          <t>Gabrielly Pereira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45090</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>4476.48</v>
+        <v>4796.71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2320</v>
+        <v>49140</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Gabriel Melo</t>
+          <t>Luiz Miguel Aragão</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -729,39 +729,39 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45099</v>
+        <v>45080</v>
       </c>
       <c r="G10" t="n">
-        <v>6419.21</v>
+        <v>5334.28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66529</v>
+        <v>68156</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Laura Porto</t>
+          <t>Diego da Conceição</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>7172.25</v>
+        <v>5160.85</v>
       </c>
     </row>
   </sheetData>
